--- a/biology/Zoologie/Henryk_Bull/Henryk_Bull.xlsx
+++ b/biology/Zoologie/Henryk_Bull/Henryk_Bull.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Henrik Johan Bull communément appelé Henryk Bull, né le 13 octobre 1844 à Stokke et mort le 1er juin 1930 à Oslo, est un homme d'affaires et explorateur norvégien qui a immigré en Australie.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Bull dirigea une expédition en Antarctique appuyée financièrement par Svend Foyn à la recherche de baleines. Foyn était lui aussi un homme d'affaires qui a breveté un fusil-harpon pour la chasse à la baleine. Le navire appelé Antarctic, commandé par le capitaine Leonard Kristensen a été utilisé pour l'expédition et a été équipé avec onze harpons, un arsenal d'explosifs et huit petites barques. L'expédition comptait 31 hommes.
 Le 19 janvier 1895, alors à la recherche des baleines, un petit groupe a atterri sur les îles Possession, un petit archipel d'îlots rocheux. Le 24 janvier 1895, plusieurs membres de l'équipage sont en bateaux au cap Adare en Antarctique. À ce moment, ils croyaient qu'ils étaient les premiers hommes à poser le pied sur le continent, mais cette distinction appartient à John Davis, qui malgré des doutes sur cet exploit, aurait posé le pied sur la péninsule Antarctique en 1821.
